--- a/data/pca/factorExposure/factorExposure_2009-11-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.007809233414876125</v>
+        <v>0.01676499991454969</v>
       </c>
       <c r="C2">
-        <v>0.003884742695451544</v>
+        <v>0.0009912523387356625</v>
       </c>
       <c r="D2">
-        <v>-0.007106401326569887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008331920313585241</v>
+      </c>
+      <c r="E2">
+        <v>-0.001324355673730095</v>
+      </c>
+      <c r="F2">
+        <v>0.01201354653825292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08864235942956283</v>
+        <v>0.09400413059310612</v>
       </c>
       <c r="C4">
-        <v>0.06201634967831868</v>
+        <v>0.01500257707550175</v>
       </c>
       <c r="D4">
-        <v>-0.04822336839858772</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08467379986273325</v>
+      </c>
+      <c r="E4">
+        <v>-0.02840657274897888</v>
+      </c>
+      <c r="F4">
+        <v>-0.03161760893176791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1159072785150151</v>
+        <v>0.1578234538529838</v>
       </c>
       <c r="C6">
-        <v>0.07682204181071473</v>
+        <v>0.02573460647097658</v>
       </c>
       <c r="D6">
-        <v>0.03903204826685146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02123264087427766</v>
+      </c>
+      <c r="E6">
+        <v>-0.01221564893676497</v>
+      </c>
+      <c r="F6">
+        <v>-0.0444311978021837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05286470675670949</v>
+        <v>0.06324698762802344</v>
       </c>
       <c r="C7">
-        <v>0.05101870588383114</v>
+        <v>-0.001504946485869335</v>
       </c>
       <c r="D7">
-        <v>-0.0264101301300977</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05220424053955963</v>
+      </c>
+      <c r="E7">
+        <v>-0.009215553007786596</v>
+      </c>
+      <c r="F7">
+        <v>-0.04740725596314465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.03884115556301582</v>
+        <v>0.05705221365819413</v>
       </c>
       <c r="C8">
-        <v>0.05175824822366223</v>
+        <v>-0.01348028836432082</v>
       </c>
       <c r="D8">
-        <v>0.004990695450441359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03307274599928654</v>
+      </c>
+      <c r="E8">
+        <v>-0.01721955769379218</v>
+      </c>
+      <c r="F8">
+        <v>0.0277942507773019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.07667653572225233</v>
+        <v>0.07135847837205789</v>
       </c>
       <c r="C9">
-        <v>0.05378496774737031</v>
+        <v>0.01071799627535579</v>
       </c>
       <c r="D9">
-        <v>-0.04395945295805756</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08622802923875211</v>
+      </c>
+      <c r="E9">
+        <v>-0.02258612129938541</v>
+      </c>
+      <c r="F9">
+        <v>-0.04711241790075545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.03780835132035916</v>
+        <v>0.09433534005207121</v>
       </c>
       <c r="C10">
-        <v>0.02232504121579185</v>
+        <v>0.02100861082883547</v>
       </c>
       <c r="D10">
-        <v>0.1365162271083498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1693781390761088</v>
+      </c>
+      <c r="E10">
+        <v>0.03522778226213408</v>
+      </c>
+      <c r="F10">
+        <v>0.05362110908428529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08511116167196643</v>
+        <v>0.0876908926127619</v>
       </c>
       <c r="C11">
-        <v>0.06133419986074043</v>
+        <v>0.01060682717907886</v>
       </c>
       <c r="D11">
-        <v>-0.07591635336548953</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1169278402007932</v>
+      </c>
+      <c r="E11">
+        <v>-0.04633021888589114</v>
+      </c>
+      <c r="F11">
+        <v>-0.02048376603895074</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.08919038270300218</v>
+        <v>0.09215355640977797</v>
       </c>
       <c r="C12">
-        <v>0.06745433937722654</v>
+        <v>0.007881837709010884</v>
       </c>
       <c r="D12">
-        <v>-0.07840135314577826</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1318908023956835</v>
+      </c>
+      <c r="E12">
+        <v>-0.04774437072882686</v>
+      </c>
+      <c r="F12">
+        <v>-0.02720313925985659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03161762988132146</v>
+        <v>0.0420729598987242</v>
       </c>
       <c r="C13">
-        <v>0.02223993407384674</v>
+        <v>0.002890278803994539</v>
       </c>
       <c r="D13">
-        <v>-0.03037337621428091</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05304288429612233</v>
+      </c>
+      <c r="E13">
+        <v>0.007757674259545919</v>
+      </c>
+      <c r="F13">
+        <v>-0.002585241818515937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02651749019288149</v>
+        <v>0.02259410517357451</v>
       </c>
       <c r="C14">
-        <v>0.005643576796028773</v>
+        <v>0.01354677815734391</v>
       </c>
       <c r="D14">
-        <v>-0.0162856209575586</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03341060531682795</v>
+      </c>
+      <c r="E14">
+        <v>-0.01767114365461397</v>
+      </c>
+      <c r="F14">
+        <v>-0.014566270246415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03147874582562914</v>
+        <v>0.0330688649043173</v>
       </c>
       <c r="C15">
-        <v>0.02016111121470925</v>
+        <v>0.00480251482326396</v>
       </c>
       <c r="D15">
-        <v>-0.01117578155030231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04496894211319889</v>
+      </c>
+      <c r="E15">
+        <v>-0.005725190116550064</v>
+      </c>
+      <c r="F15">
+        <v>-0.02290321150120239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07367997244047333</v>
+        <v>0.07449492470717596</v>
       </c>
       <c r="C16">
-        <v>0.06351830595784226</v>
+        <v>0.001478258316715745</v>
       </c>
       <c r="D16">
-        <v>-0.07120563433649278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1265246174046805</v>
+      </c>
+      <c r="E16">
+        <v>-0.06207093656819015</v>
+      </c>
+      <c r="F16">
+        <v>-0.02356050675151377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03319967866541497</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003548616436742968</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01827945781248461</v>
+      </c>
+      <c r="E18">
+        <v>0.007535172064559571</v>
+      </c>
+      <c r="F18">
+        <v>0.007107208792394669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.05011909092309585</v>
+        <v>0.06111702628457365</v>
       </c>
       <c r="C20">
-        <v>0.04067609839546941</v>
+        <v>0.0002105648764113179</v>
       </c>
       <c r="D20">
-        <v>-0.02470076115627532</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07697201413861994</v>
+      </c>
+      <c r="E20">
+        <v>-0.0554330814036703</v>
+      </c>
+      <c r="F20">
+        <v>-0.02303735139489149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03282157284490421</v>
+        <v>0.04097385723176899</v>
       </c>
       <c r="C21">
-        <v>0.01707622394097598</v>
+        <v>0.006674065992131005</v>
       </c>
       <c r="D21">
-        <v>-0.006855312743976171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03684745247725667</v>
+      </c>
+      <c r="E21">
+        <v>0.005436404807946034</v>
+      </c>
+      <c r="F21">
+        <v>0.02429307476232111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02148995222189956</v>
+        <v>0.04310538512402144</v>
       </c>
       <c r="C22">
-        <v>0.0190309618897811</v>
+        <v>0.0008744942397853015</v>
       </c>
       <c r="D22">
-        <v>0.02303742359826527</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.005560221832920226</v>
+      </c>
+      <c r="E22">
+        <v>-0.03263305312534279</v>
+      </c>
+      <c r="F22">
+        <v>0.04178190907084206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02146618067984762</v>
+        <v>0.04309695366903974</v>
       </c>
       <c r="C23">
-        <v>0.0190137735479095</v>
+        <v>0.0008709541434895926</v>
       </c>
       <c r="D23">
-        <v>0.02305242624887717</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.005575409945206421</v>
+      </c>
+      <c r="E23">
+        <v>-0.03284226782044777</v>
+      </c>
+      <c r="F23">
+        <v>0.04174788840331058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07861782362596365</v>
+        <v>0.08033959333507605</v>
       </c>
       <c r="C24">
-        <v>0.06744258852718091</v>
+        <v>0.001916062409293185</v>
       </c>
       <c r="D24">
-        <v>-0.0791020455305252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1218019255602315</v>
+      </c>
+      <c r="E24">
+        <v>-0.04947300135675984</v>
+      </c>
+      <c r="F24">
+        <v>-0.02558395303204531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08061545826664618</v>
+        <v>0.08484449281005227</v>
       </c>
       <c r="C25">
-        <v>0.06541319449104259</v>
+        <v>0.004380860017805083</v>
       </c>
       <c r="D25">
-        <v>-0.08198636722406964</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1096293566958742</v>
+      </c>
+      <c r="E25">
+        <v>-0.03236650909857949</v>
+      </c>
+      <c r="F25">
+        <v>-0.02611759955667721</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04793448216527707</v>
+        <v>0.05773971928810882</v>
       </c>
       <c r="C26">
-        <v>0.0218412436297556</v>
+        <v>0.01425801779628524</v>
       </c>
       <c r="D26">
-        <v>-0.006217765466277867</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04040169583713332</v>
+      </c>
+      <c r="E26">
+        <v>-0.0276293764200163</v>
+      </c>
+      <c r="F26">
+        <v>0.007528926649071884</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.06419229687702288</v>
+        <v>0.1403567001327997</v>
       </c>
       <c r="C28">
-        <v>0.05553962123687411</v>
+        <v>0.02070132031031932</v>
       </c>
       <c r="D28">
-        <v>0.2496064770805767</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2617986953701928</v>
+      </c>
+      <c r="E28">
+        <v>0.06741880185756892</v>
+      </c>
+      <c r="F28">
+        <v>-0.009237405120749645</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02490347315467023</v>
+        <v>0.02726264376810039</v>
       </c>
       <c r="C29">
-        <v>0.009851031010658798</v>
+        <v>0.008310732698248918</v>
       </c>
       <c r="D29">
-        <v>-0.006948237921055311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03160205294176189</v>
+      </c>
+      <c r="E29">
+        <v>-0.01123338556622702</v>
+      </c>
+      <c r="F29">
+        <v>0.01149589841371386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.07993693606028206</v>
+        <v>0.06082170190121679</v>
       </c>
       <c r="C30">
-        <v>0.06970117724482483</v>
+        <v>0.003422217788376311</v>
       </c>
       <c r="D30">
-        <v>-0.04164996664518898</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0880419989704682</v>
+      </c>
+      <c r="E30">
+        <v>-0.01868142594885402</v>
+      </c>
+      <c r="F30">
+        <v>-0.08131937661532992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03450269384198312</v>
+        <v>0.05015847716157059</v>
       </c>
       <c r="C31">
-        <v>0.009487193929458805</v>
+        <v>0.01516255122227097</v>
       </c>
       <c r="D31">
-        <v>-0.01605541686393585</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02495919165166547</v>
+      </c>
+      <c r="E31">
+        <v>-0.02763787199634369</v>
+      </c>
+      <c r="F31">
+        <v>0.002190317789310987</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.03770807740641309</v>
+        <v>0.04992438831435803</v>
       </c>
       <c r="C32">
-        <v>0.0352195453424091</v>
+        <v>-0.001767266808652714</v>
       </c>
       <c r="D32">
-        <v>-0.006211712988317534</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03667314506494021</v>
+      </c>
+      <c r="E32">
+        <v>-0.03187952060442896</v>
+      </c>
+      <c r="F32">
+        <v>-0.003120711792989334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08606040164134686</v>
+        <v>0.08998793646106364</v>
       </c>
       <c r="C33">
-        <v>0.06812754113274958</v>
+        <v>0.007426507664950843</v>
       </c>
       <c r="D33">
-        <v>-0.05161266753834242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1000385094379495</v>
+      </c>
+      <c r="E33">
+        <v>-0.04411648941881572</v>
+      </c>
+      <c r="F33">
+        <v>-0.03553068916699016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07730593641766707</v>
+        <v>0.06789556967349318</v>
       </c>
       <c r="C34">
-        <v>0.05663755219512293</v>
+        <v>0.01033009236344922</v>
       </c>
       <c r="D34">
-        <v>-0.0739981258678722</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1082950030062944</v>
+      </c>
+      <c r="E34">
+        <v>-0.0347151613484618</v>
+      </c>
+      <c r="F34">
+        <v>-0.03214350774731539</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01663929179202309</v>
+        <v>0.02456077462973002</v>
       </c>
       <c r="C35">
-        <v>0.0130163478279563</v>
+        <v>0.002379827516524753</v>
       </c>
       <c r="D35">
-        <v>-0.003824692638874297</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01145976358954185</v>
+      </c>
+      <c r="E35">
+        <v>-0.01158573811378057</v>
+      </c>
+      <c r="F35">
+        <v>-0.0001909304519155851</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01745145948754399</v>
+        <v>0.0278601832622923</v>
       </c>
       <c r="C36">
-        <v>0.003463400777050586</v>
+        <v>0.006991470492905319</v>
       </c>
       <c r="D36">
-        <v>-0.02772801563245563</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03926979162529606</v>
+      </c>
+      <c r="E36">
+        <v>-0.01622577031317228</v>
+      </c>
+      <c r="F36">
+        <v>-0.01473933538799693</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0002663980133947295</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0001178792415501482</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.0002166560965496581</v>
+      </c>
+      <c r="E37">
+        <v>0.000394686044147465</v>
+      </c>
+      <c r="F37">
+        <v>-0.000638772319211191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.001607796252015161</v>
+        <v>0.001090199885745533</v>
       </c>
       <c r="C38">
-        <v>0.001447215509165431</v>
+        <v>0.0001815641439855085</v>
       </c>
       <c r="D38">
-        <v>0.001806750647449293</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0004746808621216038</v>
+      </c>
+      <c r="E38">
+        <v>-0.0001071691148457856</v>
+      </c>
+      <c r="F38">
+        <v>0.0008262401232747108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1144987819544155</v>
+        <v>0.1053155048596712</v>
       </c>
       <c r="C39">
-        <v>0.08331049810410994</v>
+        <v>0.01587119214863221</v>
       </c>
       <c r="D39">
-        <v>-0.1165674549234378</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1537408700267094</v>
+      </c>
+      <c r="E39">
+        <v>-0.05861354296515039</v>
+      </c>
+      <c r="F39">
+        <v>-0.02943902234320838</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02471319230653727</v>
+        <v>0.04247737071601114</v>
       </c>
       <c r="C40">
-        <v>0.01065786730947657</v>
+        <v>0.00693520599508222</v>
       </c>
       <c r="D40">
-        <v>0.01186742803695591</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03147462593432297</v>
+      </c>
+      <c r="E40">
+        <v>-0.003292489621095766</v>
+      </c>
+      <c r="F40">
+        <v>0.01671265442083197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02013301457791323</v>
+        <v>0.0280167888246208</v>
       </c>
       <c r="C41">
-        <v>0.008073738874256371</v>
+        <v>0.00691098365299727</v>
       </c>
       <c r="D41">
-        <v>0.005835436920720615</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.009931190043811388</v>
+      </c>
+      <c r="E41">
+        <v>-0.01236844326030162</v>
+      </c>
+      <c r="F41">
+        <v>0.006370183821983368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02240834592667558</v>
+        <v>0.04060846126509694</v>
       </c>
       <c r="C43">
-        <v>0.008275138825577722</v>
+        <v>0.00691055506141422</v>
       </c>
       <c r="D43">
-        <v>-0.006423615672150441</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0192404857122035</v>
+      </c>
+      <c r="E43">
+        <v>-0.02428902798909048</v>
+      </c>
+      <c r="F43">
+        <v>0.01304963307734261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.09451751585177705</v>
+        <v>0.07989984785172956</v>
       </c>
       <c r="C44">
-        <v>0.05899976263363423</v>
+        <v>0.01977905567992891</v>
       </c>
       <c r="D44">
-        <v>-0.04412254191214367</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09711287388105219</v>
+      </c>
+      <c r="E44">
+        <v>-0.06398177020782823</v>
+      </c>
+      <c r="F44">
+        <v>-0.1552549337374197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.007107989323809334</v>
+        <v>0.02271762295386032</v>
       </c>
       <c r="C46">
-        <v>0.0001069900608621101</v>
+        <v>0.003457318862670981</v>
       </c>
       <c r="D46">
-        <v>0.002184466457140819</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01301977638067552</v>
+      </c>
+      <c r="E46">
+        <v>-0.02173260826927113</v>
+      </c>
+      <c r="F46">
+        <v>0.006934175876880135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03315472543052436</v>
+        <v>0.05174944102652596</v>
       </c>
       <c r="C47">
-        <v>0.0241848815049344</v>
+        <v>0.003226599381164278</v>
       </c>
       <c r="D47">
-        <v>0.02721052865486577</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01393859199217359</v>
+      </c>
+      <c r="E47">
+        <v>-0.02380232247933901</v>
+      </c>
+      <c r="F47">
+        <v>0.03237201932575434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.0401397046468401</v>
+        <v>0.05010447186431677</v>
       </c>
       <c r="C48">
-        <v>0.03256650143308194</v>
+        <v>0.002228856974434096</v>
       </c>
       <c r="D48">
-        <v>-0.03151741979143997</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05005713633091997</v>
+      </c>
+      <c r="E48">
+        <v>0.00632749253723641</v>
+      </c>
+      <c r="F48">
+        <v>-0.01022886176787387</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1719273112656926</v>
+        <v>0.2008993932210862</v>
       </c>
       <c r="C49">
-        <v>0.1446389633199731</v>
+        <v>0.01893314704473326</v>
       </c>
       <c r="D49">
-        <v>0.03761415110083</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.007026681672448888</v>
+      </c>
+      <c r="E49">
+        <v>-0.03229330502687373</v>
+      </c>
+      <c r="F49">
+        <v>-0.03681258715122724</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03778408648903817</v>
+        <v>0.05059987881501705</v>
       </c>
       <c r="C50">
-        <v>0.01851158919500618</v>
+        <v>0.01103520073508625</v>
       </c>
       <c r="D50">
-        <v>-0.007941655311585097</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02378596130241231</v>
+      </c>
+      <c r="E50">
+        <v>-0.02960834577276851</v>
+      </c>
+      <c r="F50">
+        <v>-0.009781939563541417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.000699455747067127</v>
+        <v>0.0004143682436094713</v>
       </c>
       <c r="C51">
-        <v>0.0005911852879097989</v>
+        <v>0.000113595193754706</v>
       </c>
       <c r="D51">
-        <v>0.0009294172389653324</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0001759552099298438</v>
+      </c>
+      <c r="E51">
+        <v>-0.0001569949581392691</v>
+      </c>
+      <c r="F51">
+        <v>-0.0009772741811612171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1273643988768511</v>
+        <v>0.1464294985227794</v>
       </c>
       <c r="C52">
-        <v>0.1064322883401326</v>
+        <v>0.01621627658363763</v>
       </c>
       <c r="D52">
-        <v>-0.03035611110432199</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04347394798670541</v>
+      </c>
+      <c r="E52">
+        <v>-0.01960164071765467</v>
+      </c>
+      <c r="F52">
+        <v>-0.04279158466559622</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1391208812990182</v>
+        <v>0.1716068740825722</v>
       </c>
       <c r="C53">
-        <v>0.1167390146258757</v>
+        <v>0.01924319183841664</v>
       </c>
       <c r="D53">
-        <v>0.002492450972563163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005921053492877459</v>
+      </c>
+      <c r="E53">
+        <v>-0.03120645214985741</v>
+      </c>
+      <c r="F53">
+        <v>-0.07341657603795643</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.03074060774896736</v>
+        <v>0.02209574204361385</v>
       </c>
       <c r="C54">
-        <v>0.01399164401234301</v>
+        <v>0.01208920846651132</v>
       </c>
       <c r="D54">
-        <v>-0.006566957460529246</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03422327933583687</v>
+      </c>
+      <c r="E54">
+        <v>-0.01850038780917073</v>
+      </c>
+      <c r="F54">
+        <v>0.005183986582305697</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.0879166350936426</v>
+        <v>0.1140394354031109</v>
       </c>
       <c r="C55">
-        <v>0.06743605925466996</v>
+        <v>0.01678488799595069</v>
       </c>
       <c r="D55">
-        <v>0.00673772592387906</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.00850739508553275</v>
+      </c>
+      <c r="E55">
+        <v>-0.02736075441130411</v>
+      </c>
+      <c r="F55">
+        <v>-0.04775821356131672</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1347543405045233</v>
+        <v>0.1766932991143967</v>
       </c>
       <c r="C56">
-        <v>0.1152079056790222</v>
+        <v>0.01691874783944508</v>
       </c>
       <c r="D56">
-        <v>0.01570835457762756</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0006339945789624589</v>
+      </c>
+      <c r="E56">
+        <v>-0.03459670987179909</v>
+      </c>
+      <c r="F56">
+        <v>-0.05245970022821649</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.03645120770606105</v>
+        <v>0.04600891307274495</v>
       </c>
       <c r="C58">
-        <v>0.02534538552945045</v>
+        <v>0.0001948039917292131</v>
       </c>
       <c r="D58">
-        <v>-0.03565388188340073</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.06834436002312812</v>
+      </c>
+      <c r="E58">
+        <v>-0.02710342428189351</v>
+      </c>
+      <c r="F58">
+        <v>0.03573444358210248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.09093765150160643</v>
+        <v>0.1681918766287804</v>
       </c>
       <c r="C59">
-        <v>0.07825759545215624</v>
+        <v>0.02130395003999317</v>
       </c>
       <c r="D59">
-        <v>0.2256509297192496</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2190300306616761</v>
+      </c>
+      <c r="E59">
+        <v>0.0462397871313466</v>
+      </c>
+      <c r="F59">
+        <v>0.03623878953993401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.1874490469386144</v>
+        <v>0.2319294450043496</v>
       </c>
       <c r="C60">
-        <v>0.1876430827799753</v>
+        <v>-0.002688166667490047</v>
       </c>
       <c r="D60">
-        <v>-0.01634158703290947</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04205096773112562</v>
+      </c>
+      <c r="E60">
+        <v>-0.01128307551436336</v>
+      </c>
+      <c r="F60">
+        <v>0.004327975955733989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.09678385279910384</v>
+        <v>0.08155765162209884</v>
       </c>
       <c r="C61">
-        <v>0.07401286086813</v>
+        <v>0.01172198970311452</v>
       </c>
       <c r="D61">
-        <v>-0.06701124433465694</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1171084577494857</v>
+      </c>
+      <c r="E61">
+        <v>-0.03868235927452002</v>
+      </c>
+      <c r="F61">
+        <v>-0.01089281513925809</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1352179840576992</v>
+        <v>0.169463416073773</v>
       </c>
       <c r="C62">
-        <v>0.1117681104876598</v>
+        <v>0.02019216989625332</v>
       </c>
       <c r="D62">
-        <v>0.01278870826469917</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006139589780052255</v>
+      </c>
+      <c r="E62">
+        <v>-0.0338545857212813</v>
+      </c>
+      <c r="F62">
+        <v>-0.03388569425832239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0383835010891319</v>
+        <v>0.04598803362061981</v>
       </c>
       <c r="C63">
-        <v>0.03052287471296445</v>
+        <v>0.001870341508197208</v>
       </c>
       <c r="D63">
-        <v>-0.03533923429161734</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05867623352570708</v>
+      </c>
+      <c r="E63">
+        <v>-0.02170183839154401</v>
+      </c>
+      <c r="F63">
+        <v>-0.004302236026745084</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.07984943795968098</v>
+        <v>0.1098974011004751</v>
       </c>
       <c r="C64">
-        <v>0.05771627355760989</v>
+        <v>0.01121945150753279</v>
       </c>
       <c r="D64">
-        <v>-0.005093977179405369</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04350872479049803</v>
+      </c>
+      <c r="E64">
+        <v>-0.02441750250988549</v>
+      </c>
+      <c r="F64">
+        <v>-0.02566228447141294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1111889433532284</v>
+        <v>0.1476839235908165</v>
       </c>
       <c r="C65">
-        <v>0.06610157691296133</v>
+        <v>0.03274959450332594</v>
       </c>
       <c r="D65">
-        <v>0.03068284169472882</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04008938484948695</v>
+      </c>
+      <c r="E65">
+        <v>-0.005659551808901144</v>
+      </c>
+      <c r="F65">
+        <v>-0.03926183210496886</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1393388198574596</v>
+        <v>0.1247770851728164</v>
       </c>
       <c r="C66">
-        <v>0.1119298705785858</v>
+        <v>0.01398571550400838</v>
       </c>
       <c r="D66">
-        <v>-0.1043727949534633</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.141843043155461</v>
+      </c>
+      <c r="E66">
+        <v>-0.06528501280750008</v>
+      </c>
+      <c r="F66">
+        <v>-0.03250906004845679</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05342788632947725</v>
+        <v>0.0601548148006349</v>
       </c>
       <c r="C67">
-        <v>0.04591540174491462</v>
+        <v>0.003342530280710424</v>
       </c>
       <c r="D67">
-        <v>-0.01891301919377511</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05518876986384512</v>
+      </c>
+      <c r="E67">
+        <v>-0.0171524542626815</v>
+      </c>
+      <c r="F67">
+        <v>0.03317975945663872</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.05810264117657764</v>
+        <v>0.1159860619586432</v>
       </c>
       <c r="C68">
-        <v>0.03327173414590415</v>
+        <v>0.03154932852767728</v>
       </c>
       <c r="D68">
-        <v>0.2334639029873534</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2602420637879511</v>
+      </c>
+      <c r="E68">
+        <v>0.08618838075464996</v>
+      </c>
+      <c r="F68">
+        <v>-0.005964378076196195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.02926407110695721</v>
+        <v>0.03996771434972628</v>
       </c>
       <c r="C69">
-        <v>0.0261556419337855</v>
+        <v>0.001362387802785239</v>
       </c>
       <c r="D69">
-        <v>0.01127543111898902</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007099742997101242</v>
+      </c>
+      <c r="E69">
+        <v>-0.02251735924820713</v>
+      </c>
+      <c r="F69">
+        <v>-0.0003381424315318541</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.005058990167822752</v>
+        <v>0.06607251192850502</v>
       </c>
       <c r="C70">
-        <v>0.03092091784953411</v>
+        <v>-0.02776288465633818</v>
       </c>
       <c r="D70">
-        <v>0.04536987879866337</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02448725429245463</v>
+      </c>
+      <c r="E70">
+        <v>0.03868521729036273</v>
+      </c>
+      <c r="F70">
+        <v>0.18304344358038</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.06994563779793096</v>
+        <v>0.1360207917053404</v>
       </c>
       <c r="C71">
-        <v>0.03971776801501882</v>
+        <v>0.03593648556822161</v>
       </c>
       <c r="D71">
-        <v>0.2488038685712367</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2731250650363965</v>
+      </c>
+      <c r="E71">
+        <v>0.09630606084599871</v>
+      </c>
+      <c r="F71">
+        <v>-0.01123838335421611</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1125457027906876</v>
+        <v>0.1417922455225121</v>
       </c>
       <c r="C72">
-        <v>0.07667659851097004</v>
+        <v>0.02617117763625326</v>
       </c>
       <c r="D72">
-        <v>0.02629977528575111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0006108765208409179</v>
+      </c>
+      <c r="E72">
+        <v>-0.03869990202564256</v>
+      </c>
+      <c r="F72">
+        <v>-0.033100123075319</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1582515882195108</v>
+        <v>0.2016543896179915</v>
       </c>
       <c r="C73">
-        <v>0.1393846234447006</v>
+        <v>0.01229671300937133</v>
       </c>
       <c r="D73">
-        <v>0.03562517188057037</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01734061867525835</v>
+      </c>
+      <c r="E73">
+        <v>-0.06435843518757745</v>
+      </c>
+      <c r="F73">
+        <v>-0.03541644660861688</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08495960371757035</v>
+        <v>0.09452473766763236</v>
       </c>
       <c r="C74">
-        <v>0.0694029205155596</v>
+        <v>0.01325414323011832</v>
       </c>
       <c r="D74">
-        <v>0.001056120288933581</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01707829691874153</v>
+      </c>
+      <c r="E74">
+        <v>-0.04347099782037524</v>
+      </c>
+      <c r="F74">
+        <v>-0.05814194797760468</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.118233578784102</v>
+        <v>0.1276020851195314</v>
       </c>
       <c r="C75">
-        <v>0.0794880368601394</v>
+        <v>0.02808283240035114</v>
       </c>
       <c r="D75">
-        <v>0.003947585995089305</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03043378141717544</v>
+      </c>
+      <c r="E75">
+        <v>-0.05769403847414015</v>
+      </c>
+      <c r="F75">
+        <v>-0.02046869711239421</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0006504622921085877</v>
+        <v>0.0004118580514342212</v>
       </c>
       <c r="C76">
-        <v>0.0005392513012935665</v>
+        <v>0.0001177350609574039</v>
       </c>
       <c r="D76">
-        <v>0.00115081806155994</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.000407303532290937</v>
+      </c>
+      <c r="E76">
+        <v>-5.654459973114264e-05</v>
+      </c>
+      <c r="F76">
+        <v>-8.691374923869493e-05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07638027227558852</v>
+        <v>0.08749474380692009</v>
       </c>
       <c r="C77">
-        <v>0.05511227133049031</v>
+        <v>0.008165136935095841</v>
       </c>
       <c r="D77">
-        <v>-0.07052291242925145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1133473436141469</v>
+      </c>
+      <c r="E77">
+        <v>-0.03909056035655713</v>
+      </c>
+      <c r="F77">
+        <v>-0.03041137928305381</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1319886329048624</v>
+        <v>0.1007898609430469</v>
       </c>
       <c r="C78">
-        <v>0.06436303939328239</v>
+        <v>0.03967805350432695</v>
       </c>
       <c r="D78">
-        <v>-0.01923274328206196</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1161692213486728</v>
+      </c>
+      <c r="E78">
+        <v>-0.07455008062155456</v>
+      </c>
+      <c r="F78">
+        <v>-0.04490401308095198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1246058854448077</v>
+        <v>0.1643006672878059</v>
       </c>
       <c r="C79">
-        <v>0.09275837403316464</v>
+        <v>0.02269128419109674</v>
       </c>
       <c r="D79">
-        <v>0.01562342224593972</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01383611830178082</v>
+      </c>
+      <c r="E79">
+        <v>-0.04542857532992543</v>
+      </c>
+      <c r="F79">
+        <v>-0.0113761604808646</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.06231251206690269</v>
+        <v>0.08302505200917072</v>
       </c>
       <c r="C80">
-        <v>0.05785195477165202</v>
+        <v>-0.0009272954506605303</v>
       </c>
       <c r="D80">
-        <v>-0.02895343122170253</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05665944974167648</v>
+      </c>
+      <c r="E80">
+        <v>-0.03684803514574383</v>
+      </c>
+      <c r="F80">
+        <v>0.02241729915837409</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1112605044156913</v>
+        <v>0.1208111708914952</v>
       </c>
       <c r="C81">
-        <v>0.06712950117938919</v>
+        <v>0.03201650290660293</v>
       </c>
       <c r="D81">
-        <v>-0.005862660364681013</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01452488366351795</v>
+      </c>
+      <c r="E81">
+        <v>-0.05598594334509541</v>
+      </c>
+      <c r="F81">
+        <v>-0.01820966241677879</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1343348117822061</v>
+        <v>0.1656480426961393</v>
       </c>
       <c r="C82">
-        <v>0.1031094580262842</v>
+        <v>0.02437745989016417</v>
       </c>
       <c r="D82">
-        <v>0.002669511710438856</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004088661640740296</v>
+      </c>
+      <c r="E82">
+        <v>-0.02791102676369196</v>
+      </c>
+      <c r="F82">
+        <v>-0.08225758984619394</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05682279108990029</v>
+        <v>0.05974760212623733</v>
       </c>
       <c r="C83">
-        <v>0.04634387744614502</v>
+        <v>0.002846845574726885</v>
       </c>
       <c r="D83">
-        <v>-0.02189536914308162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05090730552999691</v>
+      </c>
+      <c r="E83">
+        <v>-0.004772370037544472</v>
+      </c>
+      <c r="F83">
+        <v>0.03019722039076459</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06453895559973437</v>
+        <v>0.058765586501291</v>
       </c>
       <c r="C84">
-        <v>0.04275487892005329</v>
+        <v>0.01124163088254044</v>
       </c>
       <c r="D84">
-        <v>-0.04207972259528315</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0635048278750603</v>
+      </c>
+      <c r="E84">
+        <v>-0.006345133266407712</v>
+      </c>
+      <c r="F84">
+        <v>-0.00404814863900865</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.115290967990244</v>
+        <v>0.1366298632503794</v>
       </c>
       <c r="C85">
-        <v>0.07721655742525602</v>
+        <v>0.02801275059568738</v>
       </c>
       <c r="D85">
-        <v>0.008776338911612735</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009395220911061035</v>
+      </c>
+      <c r="E85">
+        <v>-0.03734187135690065</v>
+      </c>
+      <c r="F85">
+        <v>-0.046685428942651</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.05818905124854948</v>
+        <v>0.09548688534613931</v>
       </c>
       <c r="C86">
-        <v>0.05235698851689406</v>
+        <v>-0.005378699112672832</v>
       </c>
       <c r="D86">
-        <v>0.1003200214365672</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03977386460268085</v>
+      </c>
+      <c r="E86">
+        <v>-0.2157307201873062</v>
+      </c>
+      <c r="F86">
+        <v>0.9086925386426323</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1174270016179355</v>
+        <v>0.09682234597030999</v>
       </c>
       <c r="C87">
-        <v>0.07919625614424958</v>
+        <v>0.02014135566622878</v>
       </c>
       <c r="D87">
-        <v>-0.04523615352803772</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0939813921174575</v>
+      </c>
+      <c r="E87">
+        <v>0.05223012349548929</v>
+      </c>
+      <c r="F87">
+        <v>-0.0498205332207885</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.045030949067228</v>
+        <v>0.06078784619097547</v>
       </c>
       <c r="C88">
-        <v>0.03535050081900819</v>
+        <v>0.002247252648114849</v>
       </c>
       <c r="D88">
-        <v>-0.0134956330855405</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04928275923718821</v>
+      </c>
+      <c r="E88">
+        <v>-0.02423056108788307</v>
+      </c>
+      <c r="F88">
+        <v>-0.01330657836518448</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.06213771541945088</v>
+        <v>0.1330526136303837</v>
       </c>
       <c r="C89">
-        <v>0.06305571231295343</v>
+        <v>0.01304676903460944</v>
       </c>
       <c r="D89">
-        <v>0.2618257099434664</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2489436425503521</v>
+      </c>
+      <c r="E89">
+        <v>0.09041729800744742</v>
+      </c>
+      <c r="F89">
+        <v>0.008034346903583553</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.07190709760475408</v>
+        <v>0.1506476168506972</v>
       </c>
       <c r="C90">
-        <v>0.04493534017500458</v>
+        <v>0.03235735719062913</v>
       </c>
       <c r="D90">
-        <v>0.2469285296056251</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2700987144666841</v>
+      </c>
+      <c r="E90">
+        <v>0.1124003749521424</v>
+      </c>
+      <c r="F90">
+        <v>0.003597280255732365</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.09297283398313086</v>
+        <v>0.1205933707768513</v>
       </c>
       <c r="C91">
-        <v>0.07111049868014463</v>
+        <v>0.01916968693571328</v>
       </c>
       <c r="D91">
-        <v>0.03130071564239432</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0139977107856117</v>
+      </c>
+      <c r="E91">
+        <v>-0.05596580718477313</v>
+      </c>
+      <c r="F91">
+        <v>0.000987262345953322</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.06351349683108021</v>
+        <v>0.1477868890990224</v>
       </c>
       <c r="C92">
-        <v>0.05715808145325796</v>
+        <v>0.02375596471378176</v>
       </c>
       <c r="D92">
-        <v>0.2589429738072321</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2927291617294954</v>
+      </c>
+      <c r="E92">
+        <v>0.1014613166781709</v>
+      </c>
+      <c r="F92">
+        <v>0.01327270562936484</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.07934527912689512</v>
+        <v>0.1518708670314821</v>
       </c>
       <c r="C93">
-        <v>0.05921946716690401</v>
+        <v>0.02801311418236958</v>
       </c>
       <c r="D93">
-        <v>0.2628332601213112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2690653773082889</v>
+      </c>
+      <c r="E93">
+        <v>0.07782276256779885</v>
+      </c>
+      <c r="F93">
+        <v>-0.003150361936090138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1225848475562118</v>
+        <v>0.1299197819696269</v>
       </c>
       <c r="C94">
-        <v>0.08893790581072662</v>
+        <v>0.02479700338179707</v>
       </c>
       <c r="D94">
-        <v>-0.01235392183879433</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04258594179162695</v>
+      </c>
+      <c r="E94">
+        <v>-0.0571570444212408</v>
+      </c>
+      <c r="F94">
+        <v>-0.03731255465197524</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.09829539442490819</v>
+        <v>0.1270264417978202</v>
       </c>
       <c r="C95">
-        <v>0.08211843469147631</v>
+        <v>0.00350560251745602</v>
       </c>
       <c r="D95">
-        <v>-0.04652220370154259</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09284706430952237</v>
+      </c>
+      <c r="E95">
+        <v>-0.04700017221498647</v>
+      </c>
+      <c r="F95">
+        <v>0.008840224291849745</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.6217328939909055</v>
+        <v>0.1071520191539024</v>
       </c>
       <c r="C96">
-        <v>0.7775396961861445</v>
+        <v>-0.9874227272261179</v>
       </c>
       <c r="D96">
-        <v>0.02057822213336171</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04777670448961465</v>
+      </c>
+      <c r="E96">
+        <v>-0.05512970765329694</v>
+      </c>
+      <c r="F96">
+        <v>-0.0417508301090066</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1184379966612561</v>
+        <v>0.1927787201372629</v>
       </c>
       <c r="C97">
-        <v>0.1267286926790565</v>
+        <v>-0.007319099426147353</v>
       </c>
       <c r="D97">
-        <v>0.07684318631047259</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0169382042192559</v>
+      </c>
+      <c r="E97">
+        <v>-0.01853488961015977</v>
+      </c>
+      <c r="F97">
+        <v>0.08597949790180127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1400475973524955</v>
+        <v>0.2046325131608626</v>
       </c>
       <c r="C98">
-        <v>0.1291286359888586</v>
+        <v>0.006858480810774337</v>
       </c>
       <c r="D98">
-        <v>-0.0006689801072630275</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01328554328755903</v>
+      </c>
+      <c r="E98">
+        <v>0.0838074479557895</v>
+      </c>
+      <c r="F98">
+        <v>0.09052600408565707</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.03825225776204188</v>
+        <v>0.05521548845792864</v>
       </c>
       <c r="C99">
-        <v>0.04096731086547793</v>
+        <v>-0.004661806706229177</v>
       </c>
       <c r="D99">
-        <v>-0.008999852147872644</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03947382002840794</v>
+      </c>
+      <c r="E99">
+        <v>-0.02261566154741687</v>
+      </c>
+      <c r="F99">
+        <v>-0.00138417464276322</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.07703723510563605</v>
+        <v>0.1255952680454457</v>
       </c>
       <c r="C100">
-        <v>0.1111426317549782</v>
+        <v>-0.05411242255421392</v>
       </c>
       <c r="D100">
-        <v>-0.6004978994006288</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3436749041802116</v>
+      </c>
+      <c r="E100">
+        <v>0.8888154663396376</v>
+      </c>
+      <c r="F100">
+        <v>0.1450723839826613</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0246136328961143</v>
+        <v>0.02721927523498183</v>
       </c>
       <c r="C101">
-        <v>0.009594639051181452</v>
+        <v>0.008335660285283888</v>
       </c>
       <c r="D101">
-        <v>-0.006095977654745952</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03120448372058151</v>
+      </c>
+      <c r="E101">
+        <v>-0.01059623988776208</v>
+      </c>
+      <c r="F101">
+        <v>0.01267051876603584</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
